--- a/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
+++ b/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUTOUCH\Desktop\WRX_SAP INTERFACE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ERP\WRX_SAP INTERFACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFDB39A-47F2-4358-BFE1-59B1D610AECB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECA5B86-C035-4471-856B-A287BE492BA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" xr2:uid="{12C5C8EF-92D1-47ED-8473-DFC0E0C05236}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="171">
   <si>
     <t>Menu Group</t>
   </si>
@@ -447,6 +448,102 @@
   </si>
   <si>
     <t>order, order_detail, order_lend, order_lend_detail</t>
+  </si>
+  <si>
+    <t>DBPDKN</t>
+  </si>
+  <si>
+    <t>DBPDGP</t>
+  </si>
+  <si>
+    <t>DBPDTY</t>
+  </si>
+  <si>
+    <t>DBPDST</t>
+  </si>
+  <si>
+    <t>DBPDCL</t>
+  </si>
+  <si>
+    <t>DBPDSI</t>
+  </si>
+  <si>
+    <t>DBPDCR</t>
+  </si>
+  <si>
+    <t>เพิ่ม/แก้ไข ประเภทสินค้า</t>
+  </si>
+  <si>
+    <t>เพิ่ม/แก้ไข กลุ่มสินค้า</t>
+  </si>
+  <si>
+    <t>เพิ่ม/แก้ไข ชนิดสินค้า</t>
+  </si>
+  <si>
+    <t>เพิ่ม/แก้ไข รุ่นสินค้า</t>
+  </si>
+  <si>
+    <t>เพิ่ม/แก้ไข สี</t>
+  </si>
+  <si>
+    <t>เพิ่ม/แก้ไข ไซส์</t>
+  </si>
+  <si>
+    <t>DBPDBR</t>
+  </si>
+  <si>
+    <t>เพิ่ม/แก้ไข หมวดหมู่สินค้า</t>
+  </si>
+  <si>
+    <t>เพิ่ม/แก้ไข ยี่ห้อสินค้า</t>
+  </si>
+  <si>
+    <t>Product_kind</t>
+  </si>
+  <si>
+    <t>Product_group</t>
+  </si>
+  <si>
+    <t>Product_type</t>
+  </si>
+  <si>
+    <t>Product_style</t>
+  </si>
+  <si>
+    <t>Product_color</t>
+  </si>
+  <si>
+    <t>Product_size</t>
+  </si>
+  <si>
+    <t>Product_category</t>
+  </si>
+  <si>
+    <t>Product_brand</t>
+  </si>
+  <si>
+    <t>product_kind</t>
+  </si>
+  <si>
+    <t>product_group</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>product_style</t>
+  </si>
+  <si>
+    <t>product_color</t>
+  </si>
+  <si>
+    <t>product_size</t>
+  </si>
+  <si>
+    <t>product_category</t>
+  </si>
+  <si>
+    <t>product_brand</t>
   </si>
 </sst>
 </file>
@@ -462,7 +559,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +569,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -532,6 +635,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -848,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB82F9EC-2777-44E0-A7BB-7F93552DDD25}">
-  <dimension ref="B3:K37"/>
+  <dimension ref="B3:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,22 +1018,22 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="9" t="s">
         <v>116</v>
       </c>
     </row>
@@ -937,22 +1044,22 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="9" t="s">
         <v>117</v>
       </c>
     </row>
@@ -963,22 +1070,22 @@
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="9" t="s">
         <v>118</v>
       </c>
     </row>
@@ -989,22 +1096,22 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="9" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1015,62 +1122,62 @@
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="9" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1095,510 +1202,710 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F18" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F20" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F15" s="1" t="s">
+    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K28" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F16" s="1" t="s">
+    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K29" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F17" s="1" t="s">
+    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K30" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F18" s="1" t="s">
+    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F19" s="1" t="s">
+    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K32" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F20" s="1" t="s">
+    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="1" t="s">
+    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F22" s="1" t="s">
+    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K35" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="1" t="s">
+    <row r="36" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K36" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F24" s="1" t="s">
+    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F30" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F33" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F36" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>127</v>
       </c>
     </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F45" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F46" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="F5:J37">
-    <sortCondition ref="H5:H37"/>
-    <sortCondition ref="I5:I37"/>
-    <sortCondition ref="J5:J37"/>
+  <sortState ref="F5:J50">
+    <sortCondition ref="H5:H50"/>
+    <sortCondition ref="I5:I50"/>
+    <sortCondition ref="J5:J50"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:C3"/>
@@ -1606,4 +1913,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13CBD5A-029C-499C-BF3D-7CDEF2F5D3FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
+++ b/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ERP\WRX_SAP INTERFACE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flex\WRX_SAP INTERFACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBC49A8-D6B5-45C1-B19D-C9FADF470AAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A555791B-44A3-402C-A736-13EACD741D7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="5" xr2:uid="{12C5C8EF-92D1-47ED-8473-DFC0E0C05236}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C5C8EF-92D1-47ED-8473-DFC0E0C05236}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
-    <sheet name="WO-credit" sheetId="2" r:id="rId2"/>
-    <sheet name="WO-Transfer" sheetId="4" r:id="rId3"/>
-    <sheet name="WO-API" sheetId="3" r:id="rId4"/>
-    <sheet name="WC" sheetId="5" r:id="rId5"/>
-    <sheet name="WQ" sheetId="6" r:id="rId6"/>
+    <sheet name="Ecom-state" sheetId="7" r:id="rId2"/>
+    <sheet name="WO-credit" sheetId="2" r:id="rId3"/>
+    <sheet name="WO-Transfer" sheetId="4" r:id="rId4"/>
+    <sheet name="WO-API" sheetId="3" r:id="rId5"/>
+    <sheet name="WC" sheetId="5" r:id="rId6"/>
+    <sheet name="WQ" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="226">
   <si>
     <t>Menu Group</t>
   </si>
@@ -650,6 +651,69 @@
   </si>
   <si>
     <t>ฝ่ายที่เกี่ยวข้อง</t>
+  </si>
+  <si>
+    <t>รอดำเนินการ</t>
+  </si>
+  <si>
+    <t>รอชำระเงิน</t>
+  </si>
+  <si>
+    <t>รอจัดสินค้า</t>
+  </si>
+  <si>
+    <t>กำลังจัดสินค้า</t>
+  </si>
+  <si>
+    <t>รอตรวจสินค้า</t>
+  </si>
+  <si>
+    <t>กำลังตรวจสินค้า</t>
+  </si>
+  <si>
+    <t>รอจัดส่ง</t>
+  </si>
+  <si>
+    <t>จัดส่งแล้ว</t>
+  </si>
+  <si>
+    <t>ชำระเงินแล้ว</t>
+  </si>
+  <si>
+    <t>ยกเลิก</t>
+  </si>
+  <si>
+    <t>SCREST</t>
+  </si>
+  <si>
+    <t>SCRECT</t>
+  </si>
+  <si>
+    <t>ย้อนสถานะออเดอร์</t>
+  </si>
+  <si>
+    <t>ย้อนสถานะออเดอร์ที่เปิดบิลแล้ว</t>
+  </si>
+  <si>
+    <t>DBPTAB</t>
+  </si>
+  <si>
+    <t>เพิ่ม/แก้ไข แถบแสดงสินค้า</t>
+  </si>
+  <si>
+    <t>Product_tab</t>
+  </si>
+  <si>
+    <t>product_tab</t>
+  </si>
+  <si>
+    <t>ตารางสินค้า แบบครบ fields มี รุ่น, สี, ไซส์, กลุ่ม, หมวดหมู่, หมวดหมู่ย่อย, ชนิด, ประเภท, ยี่ห้อ, ปี, ทุน, ราคาขาย</t>
+  </si>
+  <si>
+    <t>ตารางลูกค้า แบบครบ fields มี กลุ่ม, ชนิด, ประเภท, เกรด, พื้นที่ขาย, มีเครดิตหรือไม่, ยอดเครดิตคงเหลือทึ่จะต้องเอามาคำนวน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ตารางสินค้าคงเหลือ แบบแยก location </t>
   </si>
 </sst>
 </file>
@@ -890,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,18 +970,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -937,19 +989,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -961,14 +1004,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1372,6 +1439,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SAP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> -</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="th-TH" sz="1100"/>
             <a:t>ใบกำกับ</a:t>
           </a:r>
@@ -1383,16 +1458,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1419225</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>321945</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1426845</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1407,8 +1482,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5400675" y="5419725"/>
-          <a:ext cx="1104900" cy="581025"/>
+          <a:off x="9123045" y="5404485"/>
+          <a:ext cx="1104900" cy="558165"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1434,10 +1509,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>EMC -</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
             <a:t>เลขที่ใบกำกับ</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1445,16 +1524,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1283970</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1469,8 +1548,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5562600" y="6381750"/>
-          <a:ext cx="800100" cy="285750"/>
+          <a:off x="9284970" y="6381750"/>
+          <a:ext cx="800100" cy="278130"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1842,72 +1921,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1419226</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>866776</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="ตัวเชื่อมต่อ: หักมุม 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B0F57F5-3160-4D4B-A834-457A6E3E383D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="2"/>
-          <a:endCxn id="12" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7569994" y="3860006"/>
-          <a:ext cx="785813" cy="2914650"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>874395</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>883920</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1925,8 +1948,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5953125" y="6000750"/>
-          <a:ext cx="9525" cy="381000"/>
+          <a:off x="9675495" y="5962650"/>
+          <a:ext cx="9525" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2202,16 +2225,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1213485</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1537335</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2226,8 +2249,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6315075" y="5238750"/>
-          <a:ext cx="323850" cy="323850"/>
+          <a:off x="10014585" y="5238750"/>
+          <a:ext cx="323850" cy="308610"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2399,6 +2422,62 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>874395</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="ลูกศรเชื่อมต่อแบบตรง 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2CAE502-AC35-465E-9479-B6A13C6FA22E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9667875" y="4772025"/>
+          <a:ext cx="7620" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9981,10 +10060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB82F9EC-2777-44E0-A7BB-7F93552DDD25}">
-  <dimension ref="B3:K50"/>
+  <dimension ref="B3:K54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9992,24 +10071,24 @@
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="C3" s="26"/>
+      <c r="F3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -10208,22 +10287,22 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -10408,12 +10487,24 @@
       </c>
     </row>
     <row r="22" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F23" s="4"/>
@@ -10927,8 +11018,30 @@
         <v>127</v>
       </c>
     </row>
+    <row r="53" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>215</v>
+      </c>
+      <c r="G53" t="s">
+        <v>217</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>216</v>
+      </c>
+      <c r="G54" t="s">
+        <v>218</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="F5:J50">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F5:J50">
     <sortCondition ref="H5:H50"/>
     <sortCondition ref="I5:I50"/>
     <sortCondition ref="J5:J50"/>
@@ -10942,11 +11055,129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FB3851-4B92-4872-B0DF-B94A163C4267}">
+  <dimension ref="D7:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13CBD5A-029C-499C-BF3D-7CDEF2F5D3FC}">
   <dimension ref="B4:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10957,262 +11188,262 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="13"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="13"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="13"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="13"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="13"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="13"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="13"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="13"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="26"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="13"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="13"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="13"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="26"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="13"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="26"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="13"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="13"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="13"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="26"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="13"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="13"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="13"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="13"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="25"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="15"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11220,12 +11451,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E5BDF9-6486-424A-A5E6-48DDA913602C}">
   <dimension ref="B4:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11236,365 +11467,366 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="13"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="13"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="13"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="13"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="13"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="13"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="13"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="13"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="13"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="13"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="13"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="13"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="26"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="13"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="13"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="13"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="26"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="13"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="13"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="13"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="26"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="13"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="13"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="13"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="26"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="13"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="13"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="24"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="13"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="24"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="13"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="24"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="13"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="24"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="13"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="24"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="13"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="24"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="13"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="24"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="13"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="24"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="13"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="24"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="13"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="24"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="13"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="24"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="13"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="25"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="15"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B6:B9"/>
@@ -11602,7 +11834,6 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11610,7 +11841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE1C7F8-FF7A-4945-AD07-E9A5C590B338}">
   <dimension ref="B4:G35"/>
   <sheetViews>
@@ -11627,296 +11858,296 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="13"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="13"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="13"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="13"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="13"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="13"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="13"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="13"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="13"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="26"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="13"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="13"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="13"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="13"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="31"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="13"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="31"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="13"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="31"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="13"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="31"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="13"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="31"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="13"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="13"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="13"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="25"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="15"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B4:G4"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11924,7 +12155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B14F616-9FAF-4356-AF82-D317B1599BEB}">
   <dimension ref="B4:F38"/>
   <sheetViews>
@@ -11940,261 +12171,261 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="13"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="13"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="13"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="13"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="13"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="13"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="13"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="13"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="13"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="13"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="13"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="31"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="13"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="31"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="13"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="31"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="13"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="31"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="13"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="31"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="13"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="31"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="13"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="31"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="13"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="31"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="13"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="31"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="13"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="24"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="13"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="25"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12206,12 +12437,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327F71EA-3100-4F7C-95CD-CE4AC02F2294}">
   <dimension ref="B4:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12222,261 +12453,261 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="13"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="13"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="13"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="13"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="13"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="13"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="13"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="13"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="13"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="13"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="13"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="31"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="13"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="31"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="13"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="31"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="13"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="31"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="13"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="31"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="13"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="31"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="13"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="31"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="13"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="31"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="13"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="31"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="13"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="24"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="13"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="25"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
+++ b/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flex\WRX_SAP INTERFACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A555791B-44A3-402C-A736-13EACD741D7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4764E45-8F0F-4CD4-801F-6D891A0DD66F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C5C8EF-92D1-47ED-8473-DFC0E0C05236}"/>
   </bookViews>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="236">
   <si>
     <t>Menu Group</t>
   </si>
@@ -683,12 +684,6 @@
     <t>ยกเลิก</t>
   </si>
   <si>
-    <t>SCREST</t>
-  </si>
-  <si>
-    <t>SCRECT</t>
-  </si>
-  <si>
     <t>ย้อนสถานะออเดอร์</t>
   </si>
   <si>
@@ -714,6 +709,42 @@
   </si>
   <si>
     <t xml:space="preserve">ตารางสินค้าคงเหลือ แบบแยก location </t>
+  </si>
+  <si>
+    <t>แก้ไขส่วนลดสินค้า</t>
+  </si>
+  <si>
+    <t>แก้ไขราคาสินค้า</t>
+  </si>
+  <si>
+    <t>SODISC</t>
+  </si>
+  <si>
+    <t>SOPRIC</t>
+  </si>
+  <si>
+    <t>SOREST</t>
+  </si>
+  <si>
+    <t>SORECT</t>
+  </si>
+  <si>
+    <t>SOREUP</t>
+  </si>
+  <si>
+    <t>ปล่อยจัดออเดอร์ที่ยังไม่ชำระเงิน</t>
+  </si>
+  <si>
+    <t>ตรวจสอบยอดชำระเงิน</t>
+  </si>
+  <si>
+    <t>order_payment</t>
+  </si>
+  <si>
+    <t>order, order_payment</t>
+  </si>
+  <si>
+    <t>ACPMCF</t>
   </si>
 </sst>
 </file>
@@ -954,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1036,6 +1067,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10060,10 +10097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB82F9EC-2777-44E0-A7BB-7F93552DDD25}">
-  <dimension ref="B3:K54"/>
+  <dimension ref="B3:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10488,10 +10525,10 @@
     </row>
     <row r="22" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F22" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>6</v>
@@ -10500,10 +10537,10 @@
         <v>84</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.25">
@@ -10839,42 +10876,42 @@
       </c>
     </row>
     <row r="42" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="43" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10979,22 +11016,22 @@
       </c>
     </row>
     <row r="49" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J49" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K49" s="6" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11018,26 +11055,109 @@
         <v>127</v>
       </c>
     </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F51" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="J51" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="K51" s="36" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F52" s="34"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="35"/>
+    </row>
     <row r="53" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
+      <c r="F53" s="34"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="35"/>
+    </row>
+    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F54" s="34"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="35"/>
+    </row>
+    <row r="55" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F55" s="34"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="35"/>
+    </row>
+    <row r="56" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F56" s="34"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="35"/>
+    </row>
+    <row r="57" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F57" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="G57" t="s">
+        <v>231</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>228</v>
+      </c>
+      <c r="G58" t="s">
         <v>215</v>
       </c>
-      <c r="G53" t="s">
-        <v>217</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F54" t="s">
+      <c r="H58" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>229</v>
+      </c>
+      <c r="G59" t="s">
         <v>216</v>
       </c>
-      <c r="G54" t="s">
-        <v>218</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>5</v>
+      <c r="H59" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>226</v>
+      </c>
+      <c r="G60" t="s">
+        <v>224</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>227</v>
+      </c>
+      <c r="G61" t="s">
+        <v>225</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -11148,7 +11268,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.25">
@@ -11156,7 +11276,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.25">
@@ -11164,7 +11284,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
+++ b/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flex\WRX_SAP INTERFACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4764E45-8F0F-4CD4-801F-6D891A0DD66F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAC9A96-8C96-4C32-ADC4-35DACFD00484}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C5C8EF-92D1-47ED-8473-DFC0E0C05236}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="270">
   <si>
     <t>Menu Group</t>
   </si>
@@ -745,13 +745,118 @@
   </si>
   <si>
     <t>ACPMCF</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>stock balance by location</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>customer credit</t>
+  </si>
+  <si>
+    <t>sponsor budget</t>
+  </si>
+  <si>
+    <t>vender</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>หัวข้อ</t>
+  </si>
+  <si>
+    <t>ได้รับแล้ว</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ข้อมูลที่ต้องดึงจาก SAP</t>
+  </si>
+  <si>
+    <t>Warehouse (consign flag)</t>
+  </si>
+  <si>
+    <t>customer master</t>
+  </si>
+  <si>
+    <t>item master</t>
+  </si>
+  <si>
+    <t>goods receipt po</t>
+  </si>
+  <si>
+    <t>sale quotation</t>
+  </si>
+  <si>
+    <t>inventory transfer request</t>
+  </si>
+  <si>
+    <t>inventory transfer draft</t>
+  </si>
+  <si>
+    <t>inventory transfer</t>
+  </si>
+  <si>
+    <t>sale order (delivery)</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>issue for production</t>
+  </si>
+  <si>
+    <t>receipt from production</t>
+  </si>
+  <si>
+    <t>โครงสร้างข้อมูล ถังกลาง</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>การอนุมัติ</t>
+  </si>
+  <si>
+    <t>APOVPO</t>
+  </si>
+  <si>
+    <t>อนุมัติรับสินค้าเกินใบสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>DBADDR</t>
+  </si>
+  <si>
+    <t>เพิ่ม/แก้ไข ที่อยู่ลูกค้า</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>address_ship_to</t>
+  </si>
+  <si>
+    <t>SCCONF</t>
+  </si>
+  <si>
+    <t>การตั้งค่า</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,8 +871,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,6 +895,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,10 +1100,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,6 +1163,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1051,6 +1181,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1068,14 +1201,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="จุลภาค" xfId="1" builtinId="3"/>
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10097,10 +10225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB82F9EC-2777-44E0-A7BB-7F93552DDD25}">
-  <dimension ref="B3:K61"/>
+  <dimension ref="B3:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10112,20 +10240,22 @@
     <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="F3" s="27" t="s">
+      <c r="C3" s="33"/>
+      <c r="F3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -10284,6 +10414,12 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>261</v>
+      </c>
       <c r="F10" s="6" t="s">
         <v>73</v>
       </c>
@@ -10544,12 +10680,24 @@
       </c>
     </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="24" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F24" s="4"/>
@@ -10616,62 +10764,62 @@
       </c>
     </row>
     <row r="29" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="30" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="31" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -10695,67 +10843,70 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F33" s="1" t="s">
+    <row r="33" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F34" s="1" t="s">
+    <row r="34" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F35" s="1" t="s">
+      <c r="O34" s="30"/>
+    </row>
+    <row r="35" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="36" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+    </row>
+    <row r="36" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F36" s="1" t="s">
         <v>24</v>
       </c>
@@ -10775,27 +10926,27 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F37" s="1" t="s">
+    <row r="37" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J37" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F38" s="1" t="s">
         <v>25</v>
       </c>
@@ -10815,7 +10966,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F39" s="1" t="s">
         <v>17</v>
       </c>
@@ -10835,7 +10986,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F40" s="4" t="s">
         <v>91</v>
       </c>
@@ -10855,7 +11006,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F41" s="4" t="s">
         <v>92</v>
       </c>
@@ -10875,7 +11026,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F42" s="6" t="s">
         <v>89</v>
       </c>
@@ -10895,7 +11046,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F43" s="6" t="s">
         <v>90</v>
       </c>
@@ -10915,7 +11066,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F44" s="6" t="s">
         <v>75</v>
       </c>
@@ -10935,7 +11086,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F45" s="6" t="s">
         <v>76</v>
       </c>
@@ -10955,7 +11106,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F46" s="6" t="s">
         <v>74</v>
       </c>
@@ -10974,197 +11125,250 @@
       <c r="K46" s="6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="47" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="28"/>
+    </row>
+    <row r="47" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F47" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="O49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F51" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G51" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H51" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J51" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K51" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F48" s="4" t="s">
+    <row r="52" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F52" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G52" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H52" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I52" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J52" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K52" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F49" s="6" t="s">
+    <row r="53" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F53" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G53" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H53" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I53" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J53" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K49" s="6" t="s">
+      <c r="K53" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F50" s="4" t="s">
+    <row r="54" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F54" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G54" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H54" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I54" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J54" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K54" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F51" s="36" t="s">
+    <row r="55" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F55" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="G51" s="36" t="s">
+      <c r="G55" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="H51" s="37" t="s">
+      <c r="H55" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I51" s="36" t="s">
+      <c r="I55" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="J51" s="36" t="s">
+      <c r="J55" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="K51" s="36" t="s">
+      <c r="K55" s="28" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="52" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F52" s="34"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="35"/>
-    </row>
-    <row r="53" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F53" s="34"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="35"/>
-    </row>
-    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F54" s="34"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="35"/>
-    </row>
-    <row r="55" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F55" s="34"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="35"/>
-    </row>
-    <row r="56" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F56" s="34"/>
-      <c r="G56" s="35"/>
+    <row r="56" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F56" s="26"/>
+      <c r="G56" s="27"/>
       <c r="H56" s="25"/>
-      <c r="I56" s="35"/>
-    </row>
-    <row r="57" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F57" s="34" t="s">
+      <c r="I56" s="27"/>
+    </row>
+    <row r="57" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F57" s="26"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="27"/>
+    </row>
+    <row r="58" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F58" s="26"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="27"/>
+    </row>
+    <row r="59" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F59" s="26"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="27"/>
+    </row>
+    <row r="60" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F60" s="26"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="27"/>
+    </row>
+    <row r="61" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F61" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G61" t="s">
         <v>231</v>
-      </c>
-      <c r="H57" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F58" t="s">
-        <v>228</v>
-      </c>
-      <c r="G58" t="s">
-        <v>215</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F59" t="s">
-        <v>229</v>
-      </c>
-      <c r="G59" t="s">
-        <v>216</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F60" t="s">
-        <v>226</v>
-      </c>
-      <c r="G60" t="s">
-        <v>224</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F61" t="s">
-        <v>227</v>
-      </c>
-      <c r="G61" t="s">
-        <v>225</v>
       </c>
       <c r="H61" s="25" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="62" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>228</v>
+      </c>
+      <c r="G62" t="s">
+        <v>215</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>229</v>
+      </c>
+      <c r="G63" t="s">
+        <v>216</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>226</v>
+      </c>
+      <c r="G64" t="s">
+        <v>224</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>227</v>
+      </c>
+      <c r="G65" t="s">
+        <v>225</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>262</v>
+      </c>
+      <c r="G66" t="s">
+        <v>263</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F5:J50">
-    <sortCondition ref="H5:H50"/>
-    <sortCondition ref="I5:I50"/>
-    <sortCondition ref="J5:J50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F5:J54">
+    <sortCondition ref="H5:H54"/>
+    <sortCondition ref="I5:I54"/>
+    <sortCondition ref="J5:J54"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:C3"/>
@@ -11176,27 +11380,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FB3851-4B92-4872-B0DF-B94A163C4267}">
-  <dimension ref="D7:I25"/>
+  <dimension ref="D3:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>2</v>
       </c>
@@ -11206,88 +11448,248 @@
       <c r="F8" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>240</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>6</v>
       </c>
       <c r="E12" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>247</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>7</v>
       </c>
       <c r="E13" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>251</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>8</v>
       </c>
       <c r="E14" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>9</v>
       </c>
       <c r="E15" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H23">
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J22" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>248</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>249</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>250</v>
+      </c>
+      <c r="K25" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>252</v>
+      </c>
+      <c r="K27" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>254</v>
+      </c>
+      <c r="K29" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>256</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>257</v>
+      </c>
+      <c r="K31" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>258</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="32"/>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="32"/>
+    </row>
+    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="32"/>
+    </row>
+    <row r="45" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H45">
         <v>1</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I45" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H24">
+    <row r="46" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H46">
         <v>2</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I46" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H25">
+    <row r="47" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H47">
         <v>3</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I47" t="s">
         <v>223</v>
       </c>
     </row>
+    <row r="48" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J22:K22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11296,8 +11698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13CBD5A-029C-499C-BF3D-7CDEF2F5D3FC}">
   <dimension ref="B4:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11308,13 +11710,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
@@ -11334,7 +11736,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="39" t="s">
         <v>176</v>
       </c>
       <c r="C6" s="16"/>
@@ -11343,28 +11745,28 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="16"/>
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="16"/>
       <c r="D8" s="8"/>
       <c r="E8" s="16"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="16"/>
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="16"/>
       <c r="D10" s="8"/>
       <c r="E10" s="16"/>
@@ -11378,7 +11780,7 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="37" t="s">
         <v>177</v>
       </c>
       <c r="C12" s="16"/>
@@ -11387,21 +11789,21 @@
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="16"/>
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="16"/>
       <c r="D14" s="8"/>
       <c r="E14" s="16"/>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="16"/>
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
@@ -11415,7 +11817,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="37" t="s">
         <v>178</v>
       </c>
       <c r="C17" s="16"/>
@@ -11424,21 +11826,21 @@
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="16"/>
       <c r="D18" s="8"/>
       <c r="E18" s="16"/>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="16"/>
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="16"/>
       <c r="D20" s="8"/>
       <c r="E20" s="16"/>
@@ -11452,7 +11854,7 @@
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="37" t="s">
         <v>179</v>
       </c>
       <c r="C22" s="16"/>
@@ -11461,14 +11863,14 @@
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="16"/>
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="16"/>
       <c r="D24" s="8"/>
       <c r="E24" s="16"/>
@@ -11482,7 +11884,7 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="37" t="s">
         <v>180</v>
       </c>
       <c r="C26" s="16"/>
@@ -11491,14 +11893,14 @@
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="16"/>
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="16"/>
       <c r="D28" s="8"/>
       <c r="E28" s="16"/>
@@ -11512,7 +11914,7 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="37" t="s">
         <v>181</v>
       </c>
       <c r="C30" s="16"/>
@@ -11521,7 +11923,7 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="29"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="16"/>
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
@@ -11575,7 +11977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E5BDF9-6486-424A-A5E6-48DDA913602C}">
   <dimension ref="B4:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -11587,13 +11989,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
@@ -11613,7 +12015,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="41" t="s">
         <v>184</v>
       </c>
       <c r="C6" s="16"/>
@@ -11622,21 +12024,21 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="16"/>
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="16"/>
       <c r="D8" s="8"/>
       <c r="E8" s="16"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="16"/>
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
@@ -11691,7 +12093,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="37" t="s">
         <v>188</v>
       </c>
       <c r="C16" s="16"/>
@@ -11700,7 +12102,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="16"/>
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
@@ -11714,7 +12116,7 @@
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="37" t="s">
         <v>189</v>
       </c>
       <c r="C19" s="16"/>
@@ -11723,7 +12125,7 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="16"/>
       <c r="D20" s="8"/>
       <c r="E20" s="16"/>
@@ -11769,7 +12171,7 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="37" t="s">
         <v>192</v>
       </c>
       <c r="C26" s="16"/>
@@ -11778,7 +12180,7 @@
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="16"/>
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
@@ -11792,7 +12194,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="37" t="s">
         <v>193</v>
       </c>
       <c r="C29" s="16"/>
@@ -11801,7 +12203,7 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="29"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="16"/>
       <c r="D30" s="8"/>
       <c r="E30" s="16"/>
@@ -11815,7 +12217,7 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="37" t="s">
         <v>194</v>
       </c>
       <c r="C32" s="16"/>
@@ -11824,7 +12226,7 @@
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="29"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="16"/>
       <c r="D33" s="8"/>
       <c r="E33" s="16"/>
@@ -11838,7 +12240,7 @@
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="37" t="s">
         <v>195</v>
       </c>
       <c r="C35" s="16"/>
@@ -11847,14 +12249,14 @@
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="29"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="16"/>
       <c r="D36" s="8"/>
       <c r="E36" s="16"/>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="29"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="16"/>
       <c r="D37" s="8"/>
       <c r="E37" s="16"/>
@@ -11978,14 +12380,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
@@ -12008,7 +12410,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="41" t="s">
         <v>197</v>
       </c>
       <c r="C6" s="20"/>
@@ -12018,7 +12420,7 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="20"/>
       <c r="D7" s="16"/>
       <c r="E7" s="8"/>
@@ -12026,7 +12428,7 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="20"/>
       <c r="D8" s="16"/>
       <c r="E8" s="8"/>
@@ -12042,7 +12444,7 @@
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="37" t="s">
         <v>196</v>
       </c>
       <c r="C10" s="20"/>
@@ -12052,7 +12454,7 @@
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="21"/>
       <c r="D11" s="16"/>
       <c r="E11" s="8"/>
@@ -12068,7 +12470,7 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="37" t="s">
         <v>198</v>
       </c>
       <c r="C13" s="21"/>
@@ -12078,7 +12480,7 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="21"/>
       <c r="D14" s="16"/>
       <c r="E14" s="8"/>
@@ -12086,7 +12488,7 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="21"/>
       <c r="D15" s="16"/>
       <c r="E15" s="8"/>
@@ -12102,7 +12504,7 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="37" t="s">
         <v>179</v>
       </c>
       <c r="C17" s="21"/>
@@ -12112,7 +12514,7 @@
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="21"/>
       <c r="D18" s="16"/>
       <c r="E18" s="8"/>
@@ -12120,7 +12522,7 @@
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="21"/>
       <c r="D19" s="16"/>
       <c r="E19" s="8"/>
@@ -12128,7 +12530,7 @@
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="37" t="s">
         <v>180</v>
       </c>
       <c r="C20" s="21"/>
@@ -12138,7 +12540,7 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="21"/>
       <c r="D21" s="16"/>
       <c r="E21" s="8"/>
@@ -12154,7 +12556,7 @@
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="37" t="s">
         <v>181</v>
       </c>
       <c r="C23" s="21"/>
@@ -12164,7 +12566,7 @@
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="21"/>
       <c r="D24" s="16"/>
       <c r="E24" s="8"/>
@@ -12291,13 +12693,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
@@ -12573,13 +12975,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">

--- a/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
+++ b/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flex\WRX_SAP INTERFACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAC9A96-8C96-4C32-ADC4-35DACFD00484}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831D414D-8565-4D69-84DC-8D0E884AB59B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C5C8EF-92D1-47ED-8473-DFC0E0C05236}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="273">
   <si>
     <t>Menu Group</t>
   </si>
@@ -99,9 +99,6 @@
     <t>ICLEND</t>
   </si>
   <si>
-    <t>เบิกสินค้าเพื่อแปรสภาพ</t>
-  </si>
-  <si>
     <t>เบิกสินค้าอภินันท์</t>
   </si>
   <si>
@@ -847,6 +844,18 @@
   </si>
   <si>
     <t>การตั้งค่า</t>
+  </si>
+  <si>
+    <t>ICTRFS</t>
+  </si>
+  <si>
+    <t>เบิกแปรสภาพ(ขาย)</t>
+  </si>
+  <si>
+    <t>เบิกแปรสภาพ(สต็อก)</t>
+  </si>
+  <si>
+    <t>transform_stock</t>
   </si>
 </sst>
 </file>
@@ -10225,10 +10234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB82F9EC-2777-44E0-A7BB-7F93552DDD25}">
-  <dimension ref="B3:P66"/>
+  <dimension ref="B3:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10274,13 +10283,13 @@
         <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -10291,22 +10300,22 @@
         <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -10317,22 +10326,22 @@
         <v>9</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -10343,22 +10352,22 @@
         <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -10369,22 +10378,22 @@
         <v>11</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -10395,308 +10404,308 @@
         <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>261</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F12" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="K12" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F14" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F15" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F16" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F17" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F18" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F19" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F20" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F21" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F22" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J22" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F23" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J23" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="24" spans="6:11" x14ac:dyDescent="0.25">
@@ -10725,82 +10734,82 @@
     </row>
     <row r="27" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F29" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>1</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F30" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>1</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="6:11" x14ac:dyDescent="0.25">
@@ -10808,122 +10817,122 @@
         <v>19</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>1</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F33" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>1</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F34" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>1</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O34" s="30"/>
     </row>
     <row r="35" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F35" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>1</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O35" s="31"/>
       <c r="P35" s="31"/>
     </row>
     <row r="36" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="3" t="s">
+      <c r="F36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>130</v>
+      <c r="I36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="6:16" x14ac:dyDescent="0.25">
@@ -10931,302 +10940,278 @@
         <v>18</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>1</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="3" t="s">
+      <c r="K39" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F40" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="4" t="s">
+      <c r="I40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F44" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J40" s="4" t="s">
+      <c r="I44" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F41" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F42" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F43" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F44" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="45" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F45" s="6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>99</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F46" s="6" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I46" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="L46" s="28"/>
+    </row>
+    <row r="47" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F47" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J47" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="K47" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="K46" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="L46" s="28"/>
-    </row>
-    <row r="47" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F47" s="4" t="s">
+    </row>
+    <row r="48" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F48" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F49" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F50" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H47" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="O49" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="50" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="5"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
     <row r="51" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F51" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>137</v>
-      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
     </row>
     <row r="52" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F52" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>137</v>
-      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
     </row>
     <row r="53" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F53" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
     </row>
     <row r="54" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F54" s="6" t="s">
@@ -11239,52 +11224,94 @@
         <v>2</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>61</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F55" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="G55" s="28" t="s">
+      <c r="F55" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F56" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F57" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F58" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J58" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="H55" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="J55" s="28" t="s">
+      <c r="K58" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="K55" s="28" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="56" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F56" s="26"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="27"/>
-    </row>
-    <row r="57" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F57" s="26"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="27"/>
-    </row>
-    <row r="58" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F58" s="26"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="27"/>
     </row>
     <row r="59" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F59" s="26"/>
@@ -11299,44 +11326,29 @@
       <c r="I60" s="27"/>
     </row>
     <row r="61" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F61" s="26" t="s">
+      <c r="F61" s="26"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="27"/>
+    </row>
+    <row r="62" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F62" s="26"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="27"/>
+    </row>
+    <row r="63" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F63" s="26"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="27"/>
+    </row>
+    <row r="64" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F64" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="G64" t="s">
         <v>230</v>
-      </c>
-      <c r="G61" t="s">
-        <v>231</v>
-      </c>
-      <c r="H61" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F62" t="s">
-        <v>228</v>
-      </c>
-      <c r="G62" t="s">
-        <v>215</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F63" t="s">
-        <v>229</v>
-      </c>
-      <c r="G63" t="s">
-        <v>216</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F64" t="s">
-        <v>226</v>
-      </c>
-      <c r="G64" t="s">
-        <v>224</v>
       </c>
       <c r="H64" s="25" t="s">
         <v>2</v>
@@ -11347,7 +11359,7 @@
         <v>227</v>
       </c>
       <c r="G65" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="H65" s="25" t="s">
         <v>2</v>
@@ -11355,20 +11367,53 @@
     </row>
     <row r="66" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
+        <v>228</v>
+      </c>
+      <c r="G66" t="s">
+        <v>215</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>225</v>
+      </c>
+      <c r="G67" t="s">
+        <v>223</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>226</v>
+      </c>
+      <c r="G68" t="s">
+        <v>224</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>261</v>
+      </c>
+      <c r="G69" t="s">
         <v>262</v>
       </c>
-      <c r="G66" t="s">
-        <v>263</v>
-      </c>
-      <c r="H66" s="25" t="s">
-        <v>260</v>
+      <c r="H69" s="25" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F5:J54">
-    <sortCondition ref="H5:H54"/>
-    <sortCondition ref="I5:I54"/>
-    <sortCondition ref="J5:J54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F5:J57">
+    <sortCondition ref="H5:H57"/>
+    <sortCondition ref="I5:I57"/>
+    <sortCondition ref="J5:J57"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:C3"/>
@@ -11396,32 +11441,32 @@
   <sheetData>
     <row r="3" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J3" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K3" s="36"/>
     </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" t="s">
         <v>243</v>
-      </c>
-      <c r="K4" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.25">
@@ -11429,13 +11474,13 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.25">
@@ -11443,16 +11488,16 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.25">
@@ -11460,13 +11505,13 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.25">
@@ -11474,13 +11519,13 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.25">
@@ -11488,13 +11533,13 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J11" t="s">
         <v>4</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.25">
@@ -11502,13 +11547,13 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.25">
@@ -11516,13 +11561,13 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.25">
@@ -11530,7 +11575,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K14" s="32"/>
     </row>
@@ -11539,7 +11584,7 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K15" s="32"/>
     </row>
@@ -11563,88 +11608,88 @@
     </row>
     <row r="22" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J22" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K22" s="36"/>
     </row>
     <row r="23" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K29" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K32" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
@@ -11661,7 +11706,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="8:11" x14ac:dyDescent="0.25">
@@ -11669,7 +11714,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="8:11" x14ac:dyDescent="0.25">
@@ -11677,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="8:11" x14ac:dyDescent="0.25">
@@ -11711,7 +11756,7 @@
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -11720,24 +11765,24 @@
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="8"/>
@@ -11781,7 +11826,7 @@
     </row>
     <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="8"/>
@@ -11818,7 +11863,7 @@
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="8"/>
@@ -11855,7 +11900,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="8"/>
@@ -11885,7 +11930,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="8"/>
@@ -11915,7 +11960,7 @@
     </row>
     <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="8"/>
@@ -11990,7 +12035,7 @@
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -11999,24 +12044,24 @@
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="8"/>
@@ -12046,7 +12091,7 @@
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="8"/>
@@ -12062,7 +12107,7 @@
     </row>
     <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="8"/>
@@ -12078,7 +12123,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="8"/>
@@ -12094,7 +12139,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
@@ -12117,7 +12162,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="8"/>
@@ -12140,7 +12185,7 @@
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="8"/>
@@ -12156,7 +12201,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="8"/>
@@ -12172,7 +12217,7 @@
     </row>
     <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="8"/>
@@ -12195,7 +12240,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="8"/>
@@ -12218,7 +12263,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="8"/>
@@ -12241,7 +12286,7 @@
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="8"/>
@@ -12381,7 +12426,7 @@
   <sheetData>
     <row r="4" spans="2:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -12391,27 +12436,27 @@
     </row>
     <row r="5" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>183</v>
-      </c>
       <c r="F5" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="16"/>
@@ -12445,7 +12490,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="16"/>
@@ -12471,7 +12516,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="16"/>
@@ -12505,7 +12550,7 @@
     </row>
     <row r="17" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="16"/>
@@ -12531,7 +12576,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="16"/>
@@ -12557,7 +12602,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="16"/>
@@ -12694,7 +12739,7 @@
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -12703,19 +12748,19 @@
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E5" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12976,7 +13021,7 @@
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -12985,19 +13030,19 @@
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E5" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
+++ b/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flex\WRX_SAP INTERFACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831D414D-8565-4D69-84DC-8D0E884AB59B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC9B321-BB79-4113-AA41-5FFFA4073533}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C5C8EF-92D1-47ED-8473-DFC0E0C05236}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="276">
   <si>
     <t>Menu Group</t>
   </si>
@@ -744,9 +744,6 @@
     <t>ACPMCF</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>stock balance by location</t>
   </si>
   <si>
@@ -856,6 +853,18 @@
   </si>
   <si>
     <t>transform_stock</t>
+  </si>
+  <si>
+    <t>ICRTOR</t>
+  </si>
+  <si>
+    <t>รับคืนสินค้าจากการขาย</t>
+  </si>
+  <si>
+    <t>return_order</t>
+  </si>
+  <si>
+    <t>return_order, return_order_detail</t>
   </si>
 </sst>
 </file>
@@ -10236,8 +10245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB82F9EC-2777-44E0-A7BB-7F93552DDD25}">
   <dimension ref="B3:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10424,10 +10433,10 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>259</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>260</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>72</v>
@@ -10690,10 +10699,10 @@
     </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F23" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>6</v>
@@ -10702,10 +10711,10 @@
         <v>83</v>
       </c>
       <c r="J23" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="24" spans="6:11" x14ac:dyDescent="0.25">
@@ -10956,22 +10965,22 @@
       </c>
     </row>
     <row r="38" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="6" t="s">
         <v>127</v>
       </c>
     </row>
@@ -10980,7 +10989,7 @@
         <v>17</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>1</v>
@@ -10997,10 +11006,10 @@
     </row>
     <row r="40" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F40" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>1</v>
@@ -11009,19 +11018,31 @@
         <v>64</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="41" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="42" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F42" s="4"/>
@@ -11152,7 +11173,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F49" s="6" t="s">
         <v>73</v>
       </c>
@@ -11171,16 +11192,13 @@
       <c r="K49" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="O49" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" spans="6:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F50" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>5</v>
@@ -11189,7 +11207,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="5"/>
@@ -11197,7 +11215,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="5"/>
@@ -11205,7 +11223,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="5"/>
@@ -11213,7 +11231,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F54" s="6" t="s">
         <v>44</v>
       </c>
@@ -11233,7 +11251,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F55" s="6" t="s">
         <v>45</v>
       </c>
@@ -11253,7 +11271,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F56" s="6" t="s">
         <v>42</v>
       </c>
@@ -11273,7 +11291,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F57" s="6" t="s">
         <v>43</v>
       </c>
@@ -11293,7 +11311,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F58" s="28" t="s">
         <v>234</v>
       </c>
@@ -11313,37 +11331,37 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F59" s="26"/>
       <c r="G59" s="27"/>
       <c r="H59" s="25"/>
       <c r="I59" s="27"/>
     </row>
-    <row r="60" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F60" s="26"/>
       <c r="G60" s="27"/>
       <c r="H60" s="25"/>
       <c r="I60" s="27"/>
     </row>
-    <row r="61" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F61" s="26"/>
       <c r="G61" s="27"/>
       <c r="H61" s="25"/>
       <c r="I61" s="27"/>
     </row>
-    <row r="62" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F62" s="26"/>
       <c r="G62" s="27"/>
       <c r="H62" s="25"/>
       <c r="I62" s="27"/>
     </row>
-    <row r="63" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F63" s="26"/>
       <c r="G63" s="27"/>
       <c r="H63" s="25"/>
       <c r="I63" s="27"/>
     </row>
-    <row r="64" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F64" s="26" t="s">
         <v>229</v>
       </c>
@@ -11400,13 +11418,13 @@
     </row>
     <row r="69" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
+        <v>260</v>
+      </c>
+      <c r="G69" t="s">
         <v>261</v>
       </c>
-      <c r="G69" t="s">
-        <v>262</v>
-      </c>
       <c r="H69" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -11441,32 +11459,32 @@
   <sheetData>
     <row r="3" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J3" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K3" s="36"/>
     </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K4" t="s">
         <v>242</v>
-      </c>
-      <c r="K4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.25">
@@ -11477,10 +11495,10 @@
         <v>204</v>
       </c>
       <c r="J7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.25">
@@ -11497,7 +11515,7 @@
         <v>60</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.25">
@@ -11508,10 +11526,10 @@
         <v>206</v>
       </c>
       <c r="J9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.25">
@@ -11522,10 +11540,10 @@
         <v>207</v>
       </c>
       <c r="J10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.25">
@@ -11539,7 +11557,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.25">
@@ -11550,10 +11568,10 @@
         <v>209</v>
       </c>
       <c r="J12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.25">
@@ -11564,10 +11582,10 @@
         <v>210</v>
       </c>
       <c r="J13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.25">
@@ -11608,88 +11626,88 @@
     </row>
     <row r="22" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J22" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K22" s="36"/>
     </row>
     <row r="23" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K29" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K32" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">

--- a/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
+++ b/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flex\WRX_SAP INTERFACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC9B321-BB79-4113-AA41-5FFFA4073533}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA4BC3D-BEBE-4A21-9FE6-4322E0B78265}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C5C8EF-92D1-47ED-8473-DFC0E0C05236}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="280">
   <si>
     <t>Menu Group</t>
   </si>
@@ -865,6 +865,18 @@
   </si>
   <si>
     <t>return_order, return_order_detail</t>
+  </si>
+  <si>
+    <t>DBPDSG</t>
+  </si>
+  <si>
+    <t>เพิ่ม/แก้ไข กลุ่มย่อยสินค้า</t>
+  </si>
+  <si>
+    <t>Product_sub_group</t>
+  </si>
+  <si>
+    <t>product_sub_group</t>
   </si>
 </sst>
 </file>
@@ -10243,10 +10255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB82F9EC-2777-44E0-A7BB-7F93552DDD25}">
-  <dimension ref="B3:P69"/>
+  <dimension ref="B3:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10559,10 +10571,10 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F16" s="6" t="s">
-        <v>140</v>
+        <v>276</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>6</v>
@@ -10571,18 +10583,18 @@
         <v>83</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>164</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F17" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>6</v>
@@ -10591,18 +10603,18 @@
         <v>83</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F18" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>6</v>
@@ -10611,18 +10623,18 @@
         <v>83</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F19" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>6</v>
@@ -10631,18 +10643,18 @@
         <v>83</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F20" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>6</v>
@@ -10651,18 +10663,18 @@
         <v>83</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F21" s="6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>6</v>
@@ -10671,38 +10683,38 @@
         <v>83</v>
       </c>
       <c r="J21" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F22" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K22" s="6" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F22" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F23" s="4" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>6</v>
@@ -10711,19 +10723,31 @@
         <v>83</v>
       </c>
       <c r="J23" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F25" s="4"/>
@@ -10742,31 +10766,19 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>1</v>
@@ -10775,38 +10787,38 @@
         <v>64</v>
       </c>
       <c r="J28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K29" s="4" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="30" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F30" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>1</v>
@@ -10815,18 +10827,18 @@
         <v>64</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F31" s="6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>1</v>
@@ -10835,58 +10847,58 @@
         <v>64</v>
       </c>
       <c r="J31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K32" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F32" s="1" t="s">
+    <row r="33" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="34" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F34" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>1</v>
@@ -10895,19 +10907,19 @@
         <v>64</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O34" s="30"/>
     </row>
     <row r="35" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F35" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>1</v>
@@ -10916,20 +10928,20 @@
         <v>64</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O35" s="31"/>
       <c r="P35" s="31"/>
     </row>
     <row r="36" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F36" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>1</v>
@@ -10938,18 +10950,18 @@
         <v>64</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F37" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>1</v>
@@ -10958,18 +10970,18 @@
         <v>64</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F38" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>1</v>
@@ -10978,18 +10990,18 @@
         <v>64</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F39" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>269</v>
+        <v>34</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>1</v>
@@ -10998,18 +11010,18 @@
         <v>64</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F40" s="6" t="s">
-        <v>268</v>
+        <v>17</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>1</v>
@@ -11018,66 +11030,66 @@
         <v>64</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>271</v>
+        <v>65</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="41" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F42" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-    </row>
     <row r="43" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F43" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
     </row>
     <row r="44" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F44" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>5</v>
@@ -11086,38 +11098,38 @@
         <v>104</v>
       </c>
       <c r="J44" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K45" s="4" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F45" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="46" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F46" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>5</v>
@@ -11126,39 +11138,39 @@
         <v>103</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L46" s="28"/>
     </row>
     <row r="47" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F47" s="6" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F48" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>5</v>
@@ -11167,18 +11179,18 @@
         <v>96</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F49" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>5</v>
@@ -11187,30 +11199,42 @@
         <v>96</v>
       </c>
       <c r="J49" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F50" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K49" s="6" t="s">
+      <c r="J50" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K50" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F50" s="4" t="s">
+    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F51" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="5"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -11232,31 +11256,19 @@
       <c r="K53" s="4"/>
     </row>
     <row r="54" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F54" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>136</v>
-      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
     </row>
     <row r="55" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F55" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>2</v>
@@ -11265,7 +11277,7 @@
         <v>63</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>136</v>
@@ -11273,10 +11285,10 @@
     </row>
     <row r="56" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F56" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>2</v>
@@ -11285,18 +11297,18 @@
         <v>63</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F57" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>2</v>
@@ -11305,37 +11317,51 @@
         <v>63</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="58" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F58" s="28" t="s">
+      <c r="F58" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F59" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="G58" s="28" t="s">
+      <c r="G59" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="H58" s="29" t="s">
+      <c r="H59" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="28" t="s">
+      <c r="I59" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="J58" s="28" t="s">
+      <c r="J59" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="K58" s="28" t="s">
+      <c r="K59" s="28" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="59" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F59" s="26"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="27"/>
     </row>
     <row r="60" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F60" s="26"/>
@@ -11362,22 +11388,17 @@
       <c r="I63" s="27"/>
     </row>
     <row r="64" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F64" s="26" t="s">
+      <c r="F64" s="26"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="27"/>
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F65" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G65" t="s">
         <v>230</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F65" t="s">
-        <v>227</v>
-      </c>
-      <c r="G65" t="s">
-        <v>214</v>
       </c>
       <c r="H65" s="25" t="s">
         <v>2</v>
@@ -11385,10 +11406,10 @@
     </row>
     <row r="66" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H66" s="25" t="s">
         <v>2</v>
@@ -11396,10 +11417,10 @@
     </row>
     <row r="67" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G67" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H67" s="25" t="s">
         <v>2</v>
@@ -11407,10 +11428,10 @@
     </row>
     <row r="68" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H68" s="25" t="s">
         <v>2</v>
@@ -11418,20 +11439,31 @@
     </row>
     <row r="69" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
+        <v>226</v>
+      </c>
+      <c r="G69" t="s">
+        <v>224</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
         <v>260</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G70" t="s">
         <v>261</v>
       </c>
-      <c r="H69" s="25" t="s">
+      <c r="H70" s="25" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F5:J57">
-    <sortCondition ref="H5:H57"/>
-    <sortCondition ref="I5:I57"/>
-    <sortCondition ref="J5:J57"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F5:J58">
+    <sortCondition ref="H5:H58"/>
+    <sortCondition ref="I5:I58"/>
+    <sortCondition ref="J5:J58"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:C3"/>

--- a/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
+++ b/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flex\WRX_SAP INTERFACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA4BC3D-BEBE-4A21-9FE6-4322E0B78265}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F57C5DD-C56F-4FFD-9FA1-F772C2695436}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C5C8EF-92D1-47ED-8473-DFC0E0C05236}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="283">
   <si>
     <t>Menu Group</t>
   </si>
@@ -877,6 +877,15 @@
   </si>
   <si>
     <t>product_sub_group</t>
+  </si>
+  <si>
+    <t>SCSYSC</t>
+  </si>
+  <si>
+    <t>ปิดระบบ</t>
+  </si>
+  <si>
+    <t>หัวข้อกำหนดสิทธิ์</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1230,6 +1239,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10255,10 +10270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB82F9EC-2777-44E0-A7BB-7F93552DDD25}">
-  <dimension ref="B3:P70"/>
+  <dimension ref="B3:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64:H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11240,9 +11255,6 @@
       <c r="K51" s="4"/>
     </row>
     <row r="52" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="5"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -11388,9 +11400,11 @@
       <c r="I63" s="27"/>
     </row>
     <row r="64" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F64" s="26"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="25"/>
+      <c r="F64" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
       <c r="I64" s="27"/>
     </row>
     <row r="65" spans="6:8" x14ac:dyDescent="0.25">
@@ -11457,6 +11471,17 @@
       </c>
       <c r="H70" s="25" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F71" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -11465,9 +11490,10 @@
     <sortCondition ref="I5:I58"/>
     <sortCondition ref="J5:J58"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F64:H64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11478,7 +11504,7 @@
   <dimension ref="D3:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11793,7 +11819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13CBD5A-029C-499C-BF3D-7CDEF2F5D3FC}">
   <dimension ref="B4:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -12072,7 +12098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E5BDF9-6486-424A-A5E6-48DDA913602C}">
   <dimension ref="B4:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -12462,7 +12488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE1C7F8-FF7A-4945-AD07-E9A5C590B338}">
   <dimension ref="B4:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
+++ b/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flex\WRX_SAP INTERFACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F57C5DD-C56F-4FFD-9FA1-F772C2695436}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D021469-D752-4A7A-896A-290103324BB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C5C8EF-92D1-47ED-8473-DFC0E0C05236}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="300">
   <si>
     <t>Menu Group</t>
   </si>
@@ -886,6 +886,57 @@
   </si>
   <si>
     <t>หัวข้อกำหนดสิทธิ์</t>
+  </si>
+  <si>
+    <t>กระทบยอดฝากขาย</t>
+  </si>
+  <si>
+    <t>ตัดยอดฝากขาย</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>รับคืนสินค้าจากการยืม</t>
+  </si>
+  <si>
+    <t>ICRTLD</t>
+  </si>
+  <si>
+    <t>ICCSOD</t>
+  </si>
+  <si>
+    <t>ICCSRC</t>
+  </si>
+  <si>
+    <t>return_lend</t>
+  </si>
+  <si>
+    <t>return_lend, return_lend_detail</t>
+  </si>
+  <si>
+    <t>DBWRHS</t>
+  </si>
+  <si>
+    <t>เพิ่ม/แก้ไข คลังสินค้า</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>warehouse</t>
+  </si>
+  <si>
+    <t>DBZONE</t>
+  </si>
+  <si>
+    <t>เพิ่ม/แก้ไข โซน</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>zone, zone_customer</t>
   </si>
 </sst>
 </file>
@@ -918,7 +969,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -940,6 +991,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,13 +1200,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1213,6 +1267,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1220,6 +1279,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1239,12 +1304,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10270,10 +10329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB82F9EC-2777-44E0-A7BB-7F93552DDD25}">
-  <dimension ref="B3:P71"/>
+  <dimension ref="B3:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64:H64"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10284,23 +10343,23 @@
     <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="47" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44" customWidth="1"/>
     <col min="15" max="15" width="14.85546875" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="F3" s="34" t="s">
+      <c r="C3" s="35"/>
+      <c r="F3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -10335,22 +10394,22 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>115</v>
       </c>
     </row>
@@ -10361,22 +10420,22 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10387,22 +10446,22 @@
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>117</v>
       </c>
     </row>
@@ -10413,22 +10472,22 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>119</v>
       </c>
     </row>
@@ -10439,1061 +10498,1190 @@
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F17" s="6" t="s">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F18" s="6" t="s">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F18" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F19" s="6" t="s">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F20" s="6" t="s">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F20" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="6" t="s">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F21" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F22" s="6" t="s">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F22" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="4" t="s">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F23" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F24" s="4" t="s">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F24" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F28" s="1" t="s">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F25" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F26" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F28" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F29" s="1" t="s">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F29" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F30" s="6" t="s">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E30" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F31" s="6" t="s">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E31" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F32" s="6" t="s">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E32" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F33" s="1" t="s">
+    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F33" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="32" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F34" s="6" t="s">
+    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K34" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="O34" s="30"/>
-    </row>
-    <row r="35" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F35" s="6" t="s">
+      <c r="O34" s="29"/>
+    </row>
+    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K35" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-    </row>
-    <row r="36" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F36" s="6" t="s">
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+    </row>
+    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E36" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K36" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F37" s="6" t="s">
+    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E37" s="34"/>
+      <c r="F37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="K37" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F38" s="6" t="s">
+    <row r="38" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E38" s="34"/>
+      <c r="F38" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="K38" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F39" s="6" t="s">
+    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E39" s="34"/>
+      <c r="F39" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="6" t="s">
+    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E40" s="34"/>
+      <c r="F40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F41" s="6" t="s">
+    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E41" s="34"/>
+      <c r="F41" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F42" s="4" t="s">
+    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E42" s="34"/>
+      <c r="F42" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="43" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F44" s="4" t="s">
+    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F43" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E44" s="34"/>
+      <c r="F44" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F45" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="27"/>
+    </row>
+    <row r="47" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F50" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G50" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H50" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I50" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J50" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K50" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F45" s="4" t="s">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F51" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G51" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H51" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I51" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J51" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K51" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F46" s="6" t="s">
+    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F52" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G52" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H52" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I52" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J52" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K46" s="6" t="s">
+      <c r="K52" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="L46" s="28"/>
-    </row>
-    <row r="47" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F47" s="6" t="s">
+    </row>
+    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F53" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G53" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H53" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I53" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J53" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K47" s="6" t="s">
+      <c r="K53" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F48" s="6" t="s">
+    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F54" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G54" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H54" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I54" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="J54" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K48" s="6" t="s">
+      <c r="K54" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F49" s="6" t="s">
+    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F55" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G55" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H55" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I55" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J55" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="K49" s="6" t="s">
+      <c r="K55" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F50" s="6" t="s">
+    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F56" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G56" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H56" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I56" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J56" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="K50" s="6" t="s">
+      <c r="K56" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F51" s="4" t="s">
+    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F57" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G57" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H57" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F55" s="6" t="s">
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E61" s="34"/>
+      <c r="F61" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G61" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H61" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="I61" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="J61" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K55" s="6" t="s">
+      <c r="K61" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F56" s="6" t="s">
+    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E62" s="34"/>
+      <c r="F62" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G62" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H62" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I62" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="J62" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K56" s="6" t="s">
+      <c r="K62" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F57" s="6" t="s">
+    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E63" s="34"/>
+      <c r="F63" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G63" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H63" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I63" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="J63" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K57" s="6" t="s">
+      <c r="K63" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F58" s="6" t="s">
+    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E64" s="34"/>
+      <c r="F64" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G64" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I64" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="J64" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="K64" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F59" s="28" t="s">
+    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F65" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="G59" s="28" t="s">
+      <c r="G65" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="H59" s="29" t="s">
+      <c r="H65" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I59" s="28" t="s">
+      <c r="I65" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="J59" s="28" t="s">
+      <c r="J65" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="K59" s="28" t="s">
+      <c r="K65" s="27" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="60" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F60" s="26"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="27"/>
-    </row>
-    <row r="61" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F61" s="26"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="27"/>
-    </row>
-    <row r="62" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F62" s="26"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="27"/>
-    </row>
-    <row r="63" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F63" s="26"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="27"/>
-    </row>
-    <row r="64" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F64" s="42" t="s">
+    <row r="66" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F66" s="25"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="26"/>
+    </row>
+    <row r="67" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F67" s="25"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="26"/>
+    </row>
+    <row r="68" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F68" s="25"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="26"/>
+    </row>
+    <row r="69" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F69" s="25"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="26"/>
+    </row>
+    <row r="70" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F70" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="27"/>
-    </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F65" s="26" t="s">
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="26"/>
+    </row>
+    <row r="71" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F71" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G71" t="s">
         <v>230</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="H71" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F66" t="s">
+    <row r="72" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
         <v>227</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G72" t="s">
         <v>214</v>
       </c>
-      <c r="H66" s="25" t="s">
+      <c r="H72" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F67" t="s">
+    <row r="73" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
         <v>228</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G73" t="s">
         <v>215</v>
       </c>
-      <c r="H67" s="25" t="s">
+      <c r="H73" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F68" t="s">
+    <row r="74" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
         <v>225</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G74" t="s">
         <v>223</v>
       </c>
-      <c r="H68" s="25" t="s">
+      <c r="H74" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F69" t="s">
+    <row r="75" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
         <v>226</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G75" t="s">
         <v>224</v>
       </c>
-      <c r="H69" s="25" t="s">
+      <c r="H75" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F70" t="s">
+    <row r="76" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
         <v>260</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G76" t="s">
         <v>261</v>
       </c>
-      <c r="H70" s="25" t="s">
+      <c r="H76" s="24" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F71" s="4" t="s">
+    <row r="77" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F77" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G77" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H77" s="4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F5:J58">
-    <sortCondition ref="H5:H58"/>
-    <sortCondition ref="I5:I58"/>
-    <sortCondition ref="J5:J58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F5:J64">
+    <sortCondition ref="H5:H64"/>
+    <sortCondition ref="I5:I64"/>
+    <sortCondition ref="J5:J64"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F70:H70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11516,10 +11704,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="K3" s="36"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
@@ -11533,7 +11721,7 @@
       <c r="J5" t="s">
         <v>235</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>240</v>
       </c>
     </row>
@@ -11541,7 +11729,7 @@
       <c r="J6" t="s">
         <v>236</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="31" t="s">
         <v>240</v>
       </c>
     </row>
@@ -11555,7 +11743,7 @@
       <c r="J7" t="s">
         <v>237</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="31" t="s">
         <v>240</v>
       </c>
     </row>
@@ -11572,7 +11760,7 @@
       <c r="J8" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="31" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11586,7 +11774,7 @@
       <c r="J9" t="s">
         <v>238</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="31" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11600,7 +11788,7 @@
       <c r="J10" t="s">
         <v>239</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="31" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11614,7 +11802,7 @@
       <c r="J11" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="31" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11628,7 +11816,7 @@
       <c r="J12" t="s">
         <v>245</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="31" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11642,7 +11830,7 @@
       <c r="J13" t="s">
         <v>249</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="31" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11653,7 +11841,7 @@
       <c r="E14" t="s">
         <v>211</v>
       </c>
-      <c r="K14" s="32"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D15">
@@ -11662,37 +11850,37 @@
       <c r="E15" t="s">
         <v>213</v>
       </c>
-      <c r="K15" s="32"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K16" s="32"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="K17" s="32"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="32"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="K19" s="32"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="K20" s="32"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="K21" s="32"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J22" s="36" t="s">
+      <c r="J22" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="K22" s="36"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
         <v>246</v>
       </c>
-      <c r="K23" s="32" t="s">
+      <c r="K23" s="31" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11700,7 +11888,7 @@
       <c r="J24" t="s">
         <v>247</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="K24" s="31" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11708,7 +11896,7 @@
       <c r="J25" t="s">
         <v>248</v>
       </c>
-      <c r="K25" s="32" t="s">
+      <c r="K25" s="31" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11716,7 +11904,7 @@
       <c r="J26" t="s">
         <v>253</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="31" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11724,7 +11912,7 @@
       <c r="J27" t="s">
         <v>250</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="31" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11732,7 +11920,7 @@
       <c r="J28" t="s">
         <v>251</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="31" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11740,7 +11928,7 @@
       <c r="J29" t="s">
         <v>252</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="31" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11748,7 +11936,7 @@
       <c r="J30" t="s">
         <v>254</v>
       </c>
-      <c r="K30" s="32" t="s">
+      <c r="K30" s="31" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11756,7 +11944,7 @@
       <c r="J31" t="s">
         <v>255</v>
       </c>
-      <c r="K31" s="32" t="s">
+      <c r="K31" s="31" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11764,18 +11952,18 @@
       <c r="J32" t="s">
         <v>256</v>
       </c>
-      <c r="K32" s="32" t="s">
+      <c r="K32" s="31" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="32"/>
+      <c r="K33" s="31"/>
     </row>
     <row r="34" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="32"/>
+      <c r="K34" s="31"/>
     </row>
     <row r="35" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="32"/>
+      <c r="K35" s="31"/>
     </row>
     <row r="45" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H45">
@@ -11831,252 +12019,252 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="9"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="37"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="9"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="37"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="9"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="37"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="37"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="9"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="37"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="37"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="9"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="37"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="18"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="9"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="18"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="9"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="18"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="9"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="19"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="11"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -12110,362 +12298,362 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="37"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="37"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="9"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="9"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="37"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="9"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="9"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="9"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="9"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="37"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="18"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="9"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="37"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="9"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="18"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="9"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="37"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="9"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="18"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="9"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="9"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="37"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="9"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="37"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="9"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="18"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="9"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="18"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="9"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="18"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="9"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="18"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="9"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="18"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="9"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="18"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="9"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="18"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="9"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="18"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="9"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="18"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="9"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="18"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="9"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="18"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="9"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="19"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="11"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12501,286 +12689,286 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="9"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="37"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="9"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="9"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="37"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="9"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="9"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="9"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="9"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="9"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="9"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="9"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="9"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="37"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="9"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="9"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="9"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="9"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="9"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="9"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="9"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="9"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="9"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="9"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="9"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="9"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="18"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="9"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="18"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="9"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="19"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="11"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -12814,261 +13002,261 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="9"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="9"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="9"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="9"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="9"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="9"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="9"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="9"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="23"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="9"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="18"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="9"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="19"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="11"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13096,261 +13284,261 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="9"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="9"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="9"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="9"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="9"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="9"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="9"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="9"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="23"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="9"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="18"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="9"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="19"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="11"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
+++ b/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flex\WRX_SAP INTERFACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D021469-D752-4A7A-896A-290103324BB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30B15A3-14CE-41AD-A92A-BCCE4FBB1712}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C5C8EF-92D1-47ED-8473-DFC0E0C05236}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="306">
   <si>
     <t>Menu Group</t>
   </si>
@@ -903,9 +903,6 @@
     <t>ICRTLD</t>
   </si>
   <si>
-    <t>ICCSOD</t>
-  </si>
-  <si>
     <t>ICCSRC</t>
   </si>
   <si>
@@ -937,6 +934,27 @@
   </si>
   <si>
     <t>zone, zone_customer</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>ACCSOD</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>consign</t>
+  </si>
+  <si>
+    <t>consign, consign_detail</t>
+  </si>
+  <si>
+    <t>consign_check</t>
+  </si>
+  <si>
+    <t>consign_check, consign_check_detail</t>
   </si>
 </sst>
 </file>
@@ -10331,8 +10349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB82F9EC-2777-44E0-A7BB-7F93552DDD25}">
   <dimension ref="B3:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10368,6 +10386,9 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E4" t="s">
+        <v>299</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
@@ -10830,43 +10851,43 @@
       </c>
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="K25" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F26" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I26" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F26" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="J26" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
@@ -10878,42 +10899,42 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="H29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -11073,7 +11094,9 @@
       </c>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E37" s="34"/>
+      <c r="E37" s="34" t="s">
+        <v>285</v>
+      </c>
       <c r="F37" s="5" t="s">
         <v>23</v>
       </c>
@@ -11094,7 +11117,9 @@
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E38" s="34"/>
+      <c r="E38" s="34" t="s">
+        <v>285</v>
+      </c>
       <c r="F38" s="5" t="s">
         <v>18</v>
       </c>
@@ -11115,7 +11140,9 @@
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E39" s="34"/>
+      <c r="E39" s="34" t="s">
+        <v>285</v>
+      </c>
       <c r="F39" s="5" t="s">
         <v>24</v>
       </c>
@@ -11136,7 +11163,9 @@
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="34"/>
+      <c r="E40" s="34" t="s">
+        <v>285</v>
+      </c>
       <c r="F40" s="5" t="s">
         <v>17</v>
       </c>
@@ -11157,7 +11186,9 @@
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="34"/>
+      <c r="E41" s="34" t="s">
+        <v>285</v>
+      </c>
       <c r="F41" s="5" t="s">
         <v>268</v>
       </c>
@@ -11178,7 +11209,9 @@
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E42" s="34"/>
+      <c r="E42" s="34" t="s">
+        <v>285</v>
+      </c>
       <c r="F42" s="5" t="s">
         <v>272</v>
       </c>
@@ -11200,7 +11233,7 @@
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F43" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>283</v>
@@ -11211,44 +11244,34 @@
       <c r="I43" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E44" s="34"/>
-      <c r="F44" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H44" s="4" t="s">
+      <c r="J43" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E45" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I45" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F45" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="K45" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.25">
@@ -11543,7 +11566,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F65" s="27" t="s">
         <v>234</v>
       </c>
@@ -11563,31 +11586,46 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F66" s="25"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="26"/>
-    </row>
-    <row r="67" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E66" s="34"/>
+      <c r="F66" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F67" s="25"/>
       <c r="G67" s="26"/>
       <c r="H67" s="24"/>
       <c r="I67" s="26"/>
     </row>
-    <row r="68" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F68" s="25"/>
       <c r="G68" s="26"/>
       <c r="H68" s="24"/>
       <c r="I68" s="26"/>
     </row>
-    <row r="69" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F69" s="25"/>
       <c r="G69" s="26"/>
       <c r="H69" s="24"/>
       <c r="I69" s="26"/>
     </row>
-    <row r="70" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F70" s="38" t="s">
         <v>282</v>
       </c>
@@ -11595,7 +11633,7 @@
       <c r="H70" s="39"/>
       <c r="I70" s="26"/>
     </row>
-    <row r="71" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F71" s="25" t="s">
         <v>229</v>
       </c>
@@ -11606,7 +11644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
         <v>227</v>
       </c>
@@ -11617,7 +11655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
         <v>228</v>
       </c>
@@ -11628,7 +11666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
         <v>225</v>
       </c>
@@ -11639,7 +11677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
         <v>226</v>
       </c>
@@ -11650,7 +11688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
         <v>260</v>
       </c>
@@ -11661,7 +11699,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="77" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F77" s="3" t="s">
         <v>280</v>
       </c>

--- a/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
+++ b/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flex\WRX_SAP INTERFACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30B15A3-14CE-41AD-A92A-BCCE4FBB1712}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97530B5-CE97-4CBF-A56B-E0FA8C3162EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C5C8EF-92D1-47ED-8473-DFC0E0C05236}"/>
+    <workbookView xWindow="1395" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{12C5C8EF-92D1-47ED-8473-DFC0E0C05236}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="310">
   <si>
     <t>Menu Group</t>
   </si>
@@ -955,6 +955,18 @@
   </si>
   <si>
     <t>consign_check, consign_check_detail</t>
+  </si>
+  <si>
+    <t>DBSALE</t>
+  </si>
+  <si>
+    <t>พนักงานขาย</t>
+  </si>
+  <si>
+    <t>Sale_man</t>
+  </si>
+  <si>
+    <t>saleman</t>
   </si>
 </sst>
 </file>
@@ -10349,8 +10361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB82F9EC-2777-44E0-A7BB-7F93552DDD25}">
   <dimension ref="B3:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10831,22 +10843,22 @@
       </c>
     </row>
     <row r="24" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="5" t="s">
         <v>265</v>
       </c>
     </row>
@@ -10891,12 +10903,24 @@
       </c>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F28" s="3" t="s">
@@ -11232,22 +11256,22 @@
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="5" t="s">
         <v>305</v>
       </c>
     </row>
@@ -11588,22 +11612,22 @@
     </row>
     <row r="66" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E66" s="34"/>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I66" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="J66" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K66" s="5" t="s">
         <v>303</v>
       </c>
     </row>

--- a/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
+++ b/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flex\WRX_SAP INTERFACE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\warrix_sap\WRX_SAP INTERFACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97530B5-CE97-4CBF-A56B-E0FA8C3162EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AD2318-A9C4-4460-91FE-3F718F405493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{12C5C8EF-92D1-47ED-8473-DFC0E0C05236}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C5C8EF-92D1-47ED-8473-DFC0E0C05236}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="320">
   <si>
     <t>Menu Group</t>
   </si>
@@ -967,6 +967,36 @@
   </si>
   <si>
     <t>saleman</t>
+  </si>
+  <si>
+    <t>DBSEND</t>
+  </si>
+  <si>
+    <t>DBTRSP</t>
+  </si>
+  <si>
+    <t>เพิ่ม/แก้ไข ผู้ให้บริการจัดส่ง</t>
+  </si>
+  <si>
+    <t>เชื่อมโยง การจัดส่ง</t>
+  </si>
+  <si>
+    <t>Masters</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>address_sender</t>
+  </si>
+  <si>
+    <t>address_transport</t>
+  </si>
+  <si>
+    <t>ICTRMV</t>
   </si>
 </sst>
 </file>
@@ -974,7 +1004,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1228,7 +1258,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1292,8 +1322,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10359,10 +10389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB82F9EC-2777-44E0-A7BB-7F93552DDD25}">
-  <dimension ref="B3:P77"/>
+  <dimension ref="B3:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10823,22 +10853,22 @@
       </c>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="5" t="s">
         <v>219</v>
       </c>
     </row>
@@ -10903,109 +10933,103 @@
       </c>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="5" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F29" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F29" s="3" t="s">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E30" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.25">
@@ -11013,10 +11037,10 @@
         <v>285</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>1</v>
@@ -11025,38 +11049,44 @@
         <v>64</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F33" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="33" t="s">
+      <c r="E33" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I33" s="32" t="s">
+      <c r="I33" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J33" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="K33" s="32" t="s">
-        <v>125</v>
+      <c r="J33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E34" s="34" t="s">
+        <v>285</v>
+      </c>
       <c r="F34" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>1</v>
@@ -11065,44 +11095,41 @@
         <v>64</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="O34" s="29"/>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="6" t="s">
+      <c r="F35" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="J35" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>130</v>
+      <c r="J35" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="32" t="s">
+        <v>125</v>
       </c>
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E36" s="34" t="s">
-        <v>285</v>
-      </c>
       <c r="F36" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>1</v>
@@ -11111,21 +11138,18 @@
         <v>64</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E37" s="34" t="s">
-        <v>285</v>
-      </c>
       <c r="F37" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>1</v>
@@ -11134,10 +11158,10 @@
         <v>64</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.25">
@@ -11145,10 +11169,10 @@
         <v>285</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>1</v>
@@ -11157,10 +11181,10 @@
         <v>64</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.25">
@@ -11168,10 +11192,10 @@
         <v>285</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>1</v>
@@ -11180,10 +11204,10 @@
         <v>64</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
@@ -11191,10 +11215,10 @@
         <v>285</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>269</v>
+        <v>20</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>1</v>
@@ -11203,10 +11227,10 @@
         <v>64</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
@@ -11214,10 +11238,10 @@
         <v>285</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>270</v>
+        <v>34</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>1</v>
@@ -11226,41 +11250,32 @@
         <v>64</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>271</v>
+        <v>51</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="34"/>
+      <c r="F42" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E43" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F43" s="5" t="s">
-        <v>288</v>
+        <v>17</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>1</v>
@@ -11269,10 +11284,33 @@
         <v>64</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>304</v>
+        <v>65</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>305</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E44" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.25">
@@ -11280,10 +11318,10 @@
         <v>285</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>1</v>
@@ -11292,36 +11330,57 @@
         <v>64</v>
       </c>
       <c r="J45" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F46" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="L47" s="27"/>
+    </row>
+    <row r="48" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E48" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J48" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K48" s="5" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="27"/>
-    </row>
-    <row r="47" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
     </row>
     <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F49" s="3"/>
@@ -11332,250 +11391,211 @@
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F50" s="32" t="s">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F53" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="G50" s="32" t="s">
+      <c r="G53" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="H50" s="33" t="s">
+      <c r="H53" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="32" t="s">
+      <c r="I53" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="J50" s="32" t="s">
+      <c r="J53" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="K50" s="32" t="s">
+      <c r="K53" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F51" s="32" t="s">
+    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F54" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G51" s="32" t="s">
+      <c r="G54" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="H51" s="33" t="s">
+      <c r="H54" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="32" t="s">
+      <c r="I54" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="J51" s="32" t="s">
+      <c r="J54" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="K51" s="32" t="s">
+      <c r="K54" s="32" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F52" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F53" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F54" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="55" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F55" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F56" s="5" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F57" s="5" t="s">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
+      <c r="I57" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="58" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
+      <c r="F58" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="59" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
+      <c r="F59" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="60" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
+      <c r="F60" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
     </row>
     <row r="61" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E61" s="34"/>
-      <c r="F61" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>136</v>
-      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
     </row>
     <row r="62" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E62" s="34"/>
-      <c r="F62" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>136</v>
-      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
     </row>
     <row r="63" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E63" s="34"/>
-      <c r="F63" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>126</v>
-      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
     </row>
     <row r="64" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E64" s="34"/>
       <c r="F64" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>2</v>
@@ -11584,118 +11604,148 @@
         <v>63</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="G65" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="I65" s="27" t="s">
+      <c r="E65" s="34"/>
+      <c r="F65" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J65" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="K65" s="27" t="s">
-        <v>233</v>
+      <c r="J65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E66" s="34"/>
       <c r="F66" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E67" s="34"/>
+      <c r="F67" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F68" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G68" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I68" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J68" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="K68" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E69" s="34"/>
+      <c r="F69" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="H69" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I69" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="J66" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="K66" s="5" t="s">
+      <c r="K69" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F67" s="25"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="26"/>
-    </row>
-    <row r="68" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F68" s="25"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="26"/>
-    </row>
-    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F69" s="25"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="26"/>
-    </row>
     <row r="70" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F70" s="38" t="s">
+      <c r="F70" s="25"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="26"/>
+    </row>
+    <row r="71" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F71" s="25"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="26"/>
+    </row>
+    <row r="72" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F72" s="25"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="26"/>
+    </row>
+    <row r="73" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F73" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="26"/>
-    </row>
-    <row r="71" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F71" s="25" t="s">
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="26"/>
+    </row>
+    <row r="74" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F74" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G74" t="s">
         <v>230</v>
-      </c>
-      <c r="H71" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F72" t="s">
-        <v>227</v>
-      </c>
-      <c r="G72" t="s">
-        <v>214</v>
-      </c>
-      <c r="H72" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F73" t="s">
-        <v>228</v>
-      </c>
-      <c r="G73" t="s">
-        <v>215</v>
-      </c>
-      <c r="H73" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F74" t="s">
-        <v>225</v>
-      </c>
-      <c r="G74" t="s">
-        <v>223</v>
       </c>
       <c r="H74" s="24" t="s">
         <v>2</v>
@@ -11703,10 +11753,10 @@
     </row>
     <row r="75" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G75" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="H75" s="24" t="s">
         <v>2</v>
@@ -11714,36 +11764,69 @@
     </row>
     <row r="76" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
+        <v>228</v>
+      </c>
+      <c r="G76" t="s">
+        <v>215</v>
+      </c>
+      <c r="H76" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>225</v>
+      </c>
+      <c r="G77" t="s">
+        <v>223</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>226</v>
+      </c>
+      <c r="G78" t="s">
+        <v>224</v>
+      </c>
+      <c r="H78" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
         <v>260</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G79" t="s">
         <v>261</v>
       </c>
-      <c r="H76" s="24" t="s">
+      <c r="H79" s="24" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="77" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F77" s="3" t="s">
+    <row r="80" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F80" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G80" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F5:J64">
-    <sortCondition ref="H5:H64"/>
-    <sortCondition ref="I5:I64"/>
-    <sortCondition ref="J5:J64"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F5:J67">
+    <sortCondition ref="H5:H67"/>
+    <sortCondition ref="I5:I67"/>
+    <sortCondition ref="J5:J67"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F73:H73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
+++ b/WRX_SAP INTERFACE/Flex_Data_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\warrix_sap\WRX_SAP INTERFACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AD2318-A9C4-4460-91FE-3F718F405493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67451FD3-8E9F-4970-BF72-48E4D358DF7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C5C8EF-92D1-47ED-8473-DFC0E0C05236}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="322">
   <si>
     <t>Menu Group</t>
   </si>
@@ -997,6 +997,12 @@
   </si>
   <si>
     <t>ICTRMV</t>
+  </si>
+  <si>
+    <t>SOCOST</t>
+  </si>
+  <si>
+    <t>แก้ไขราคาทุน</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1332,6 +1338,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10389,10 +10398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB82F9EC-2777-44E0-A7BB-7F93552DDD25}">
-  <dimension ref="B3:P80"/>
+  <dimension ref="B3:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H78" sqref="F78:H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10409,17 +10418,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="F3" s="36" t="s">
+      <c r="C3" s="36"/>
+      <c r="F3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -11733,11 +11742,11 @@
       <c r="I72" s="26"/>
     </row>
     <row r="73" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F73" s="38" t="s">
+      <c r="F73" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
       <c r="I73" s="26"/>
     </row>
     <row r="74" spans="5:11" x14ac:dyDescent="0.25">
@@ -11786,34 +11795,45 @@
     </row>
     <row r="78" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>226</v>
+        <v>320</v>
       </c>
       <c r="G78" t="s">
-        <v>224</v>
-      </c>
-      <c r="H78" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="H78" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
+        <v>226</v>
+      </c>
+      <c r="G79" t="s">
+        <v>224</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
         <v>260</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G80" t="s">
         <v>261</v>
       </c>
-      <c r="H79" s="24" t="s">
+      <c r="H80" s="24" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="80" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F80" s="3" t="s">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F81" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -11849,10 +11869,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="K3" s="40"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
@@ -12016,10 +12036,10 @@
       <c r="K21" s="31"/>
     </row>
     <row r="22" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J22" s="40" t="s">
+      <c r="J22" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="K22" s="40"/>
+      <c r="K22" s="41"/>
     </row>
     <row r="23" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
@@ -12164,13 +12184,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
@@ -12190,7 +12210,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>175</v>
       </c>
       <c r="C6" s="15"/>
@@ -12199,28 +12219,28 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="15"/>
       <c r="D7" s="7"/>
       <c r="E7" s="15"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="15"/>
       <c r="D8" s="7"/>
       <c r="E8" s="15"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="15"/>
       <c r="D9" s="7"/>
       <c r="E9" s="15"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="15"/>
       <c r="D10" s="7"/>
       <c r="E10" s="15"/>
@@ -12234,7 +12254,7 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="42" t="s">
         <v>176</v>
       </c>
       <c r="C12" s="15"/>
@@ -12243,21 +12263,21 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="41"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="15"/>
       <c r="D13" s="7"/>
       <c r="E13" s="15"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="41"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="15"/>
       <c r="D14" s="7"/>
       <c r="E14" s="15"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="15"/>
       <c r="D15" s="7"/>
       <c r="E15" s="15"/>
@@ -12271,7 +12291,7 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="42" t="s">
         <v>177</v>
       </c>
       <c r="C17" s="15"/>
@@ -12280,21 +12300,21 @@
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="15"/>
       <c r="D18" s="7"/>
       <c r="E18" s="15"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="15"/>
       <c r="D19" s="7"/>
       <c r="E19" s="15"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="41"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="15"/>
       <c r="D20" s="7"/>
       <c r="E20" s="15"/>
@@ -12308,7 +12328,7 @@
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="42" t="s">
         <v>178</v>
       </c>
       <c r="C22" s="15"/>
@@ -12317,14 +12337,14 @@
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="41"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="15"/>
       <c r="D23" s="7"/>
       <c r="E23" s="15"/>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="41"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="15"/>
       <c r="D24" s="7"/>
       <c r="E24" s="15"/>
@@ -12338,7 +12358,7 @@
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="42" t="s">
         <v>179</v>
       </c>
       <c r="C26" s="15"/>
@@ -12347,14 +12367,14 @@
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="41"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="15"/>
       <c r="D27" s="7"/>
       <c r="E27" s="15"/>
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="41"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="15"/>
       <c r="D28" s="7"/>
       <c r="E28" s="15"/>
@@ -12368,7 +12388,7 @@
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="42" t="s">
         <v>180</v>
       </c>
       <c r="C30" s="15"/>
@@ -12377,7 +12397,7 @@
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="41"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="15"/>
       <c r="D31" s="7"/>
       <c r="E31" s="15"/>
@@ -12443,13 +12463,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
@@ -12469,7 +12489,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>183</v>
       </c>
       <c r="C6" s="15"/>
@@ -12478,21 +12498,21 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="41"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="15"/>
       <c r="D7" s="7"/>
       <c r="E7" s="15"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="41"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="15"/>
       <c r="D8" s="7"/>
       <c r="E8" s="15"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="41"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="15"/>
       <c r="D9" s="7"/>
       <c r="E9" s="15"/>
@@ -12547,7 +12567,7 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="42" t="s">
         <v>187</v>
       </c>
       <c r="C16" s="15"/>
@@ -12556,7 +12576,7 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="15"/>
       <c r="D17" s="7"/>
       <c r="E17" s="15"/>
@@ -12570,7 +12590,7 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="42" t="s">
         <v>188</v>
       </c>
       <c r="C19" s="15"/>
@@ -12579,7 +12599,7 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="41"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="15"/>
       <c r="D20" s="7"/>
       <c r="E20" s="15"/>
@@ -12625,7 +12645,7 @@
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="42" t="s">
         <v>191</v>
       </c>
       <c r="C26" s="15"/>
@@ -12634,7 +12654,7 @@
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="41"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="15"/>
       <c r="D27" s="7"/>
       <c r="E27" s="15"/>
@@ -12648,7 +12668,7 @@
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
         <v>192</v>
       </c>
       <c r="C29" s="15"/>
@@ -12657,7 +12677,7 @@
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="41"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="15"/>
       <c r="D30" s="7"/>
       <c r="E30" s="15"/>
@@ -12671,7 +12691,7 @@
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="42" t="s">
         <v>193</v>
       </c>
       <c r="C32" s="15"/>
@@ -12680,7 +12700,7 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="41"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="15"/>
       <c r="D33" s="7"/>
       <c r="E33" s="15"/>
@@ -12694,7 +12714,7 @@
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="42" t="s">
         <v>194</v>
       </c>
       <c r="C35" s="15"/>
@@ -12703,14 +12723,14 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="41"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="15"/>
       <c r="D36" s="7"/>
       <c r="E36" s="15"/>
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="15"/>
       <c r="D37" s="7"/>
       <c r="E37" s="15"/>
@@ -12834,14 +12854,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
@@ -12864,7 +12884,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>196</v>
       </c>
       <c r="C6" s="19"/>
@@ -12874,7 +12894,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="41"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="19"/>
       <c r="D7" s="15"/>
       <c r="E7" s="7"/>
@@ -12882,7 +12902,7 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="41"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="19"/>
       <c r="D8" s="15"/>
       <c r="E8" s="7"/>
@@ -12898,7 +12918,7 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="42" t="s">
         <v>195</v>
       </c>
       <c r="C10" s="19"/>
@@ -12908,7 +12928,7 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="20"/>
       <c r="D11" s="15"/>
       <c r="E11" s="7"/>
@@ -12924,7 +12944,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="42" t="s">
         <v>197</v>
       </c>
       <c r="C13" s="20"/>
@@ -12934,7 +12954,7 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="41"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="20"/>
       <c r="D14" s="15"/>
       <c r="E14" s="7"/>
@@ -12942,7 +12962,7 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="20"/>
       <c r="D15" s="15"/>
       <c r="E15" s="7"/>
@@ -12958,7 +12978,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="42" t="s">
         <v>178</v>
       </c>
       <c r="C17" s="20"/>
@@ -12968,7 +12988,7 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="20"/>
       <c r="D18" s="15"/>
       <c r="E18" s="7"/>
@@ -12976,7 +12996,7 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="20"/>
       <c r="D19" s="15"/>
       <c r="E19" s="7"/>
@@ -12984,7 +13004,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="42" t="s">
         <v>179</v>
       </c>
       <c r="C20" s="20"/>
@@ -12994,7 +13014,7 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="41"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="20"/>
       <c r="D21" s="15"/>
       <c r="E21" s="7"/>
@@ -13010,7 +13030,7 @@
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="42" t="s">
         <v>180</v>
       </c>
       <c r="C23" s="20"/>
@@ -13020,7 +13040,7 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="41"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="20"/>
       <c r="D24" s="15"/>
       <c r="E24" s="7"/>
@@ -13147,13 +13167,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
@@ -13429,13 +13449,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
